--- a/data/158/MOF/TRADE/COUN/North America.xlsx
+++ b/data/158/MOF/TRADE/COUN/North America.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX11"/>
+  <dimension ref="A1:TJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4478,40 +4538,76 @@
         <v>1289019180</v>
       </c>
       <c r="SM2" t="n">
-        <v>1071668242</v>
+        <v>1071612814</v>
       </c>
       <c r="SN2" t="n">
-        <v>1169149576</v>
+        <v>1169164785</v>
       </c>
       <c r="SO2" t="n">
-        <v>1329721836</v>
+        <v>1329693002</v>
       </c>
       <c r="SP2" t="n">
-        <v>1365364471</v>
+        <v>1365034913</v>
       </c>
       <c r="SQ2" t="n">
-        <v>1189911245</v>
+        <v>1189909122</v>
       </c>
       <c r="SR2" t="n">
-        <v>1431915555</v>
+        <v>1431978080</v>
       </c>
       <c r="SS2" t="n">
-        <v>1461653659</v>
+        <v>1460472799</v>
       </c>
       <c r="ST2" t="n">
-        <v>1213195555</v>
+        <v>1213176197</v>
       </c>
       <c r="SU2" t="n">
-        <v>1218539560</v>
+        <v>1218408042</v>
       </c>
       <c r="SV2" t="n">
-        <v>1364844523</v>
+        <v>1364316442</v>
       </c>
       <c r="SW2" t="n">
-        <v>1374862969</v>
+        <v>1374860317</v>
       </c>
       <c r="SX2" t="n">
-        <v>1559689914</v>
+        <v>1559694550</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>1183548594</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6038,40 +6134,76 @@
         <v>680345060</v>
       </c>
       <c r="SM3" t="n">
-        <v>686303475</v>
+        <v>690325523</v>
       </c>
       <c r="SN3" t="n">
-        <v>720742293</v>
+        <v>722907267</v>
       </c>
       <c r="SO3" t="n">
-        <v>895209417</v>
+        <v>901739385</v>
       </c>
       <c r="SP3" t="n">
-        <v>864192186</v>
+        <v>867142122</v>
       </c>
       <c r="SQ3" t="n">
-        <v>862352761</v>
+        <v>865244883</v>
       </c>
       <c r="SR3" t="n">
-        <v>884683023</v>
+        <v>885080236</v>
       </c>
       <c r="SS3" t="n">
-        <v>849639749</v>
+        <v>848426096</v>
       </c>
       <c r="ST3" t="n">
-        <v>894248629</v>
+        <v>894890900</v>
       </c>
       <c r="SU3" t="n">
-        <v>915502191</v>
+        <v>916278199</v>
       </c>
       <c r="SV3" t="n">
-        <v>865231208</v>
+        <v>865670806</v>
       </c>
       <c r="SW3" t="n">
-        <v>1002962851</v>
+        <v>1002826125</v>
       </c>
       <c r="SX3" t="n">
-        <v>948487021</v>
+        <v>949410372</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>910786236</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7633,6 +7765,42 @@
       <c r="SX4" t="n">
         <v>1656</v>
       </c>
+      <c r="SY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -9193,6 +9361,42 @@
       <c r="SX5" t="n">
         <v>738194</v>
       </c>
+      <c r="SY5" t="n">
+        <v>780365</v>
+      </c>
+      <c r="SZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -10718,40 +10922,76 @@
         <v>76208919</v>
       </c>
       <c r="SM6" t="n">
-        <v>70150078</v>
+        <v>70133686</v>
       </c>
       <c r="SN6" t="n">
-        <v>76799302</v>
+        <v>76792637</v>
       </c>
       <c r="SO6" t="n">
-        <v>90419198</v>
+        <v>90416264</v>
       </c>
       <c r="SP6" t="n">
-        <v>89203743</v>
+        <v>89200182</v>
       </c>
       <c r="SQ6" t="n">
         <v>85336587</v>
       </c>
       <c r="SR6" t="n">
-        <v>86310170</v>
+        <v>86310171</v>
       </c>
       <c r="SS6" t="n">
-        <v>77799517</v>
+        <v>76677319</v>
       </c>
       <c r="ST6" t="n">
-        <v>62635939</v>
+        <v>62635063</v>
       </c>
       <c r="SU6" t="n">
-        <v>63219462</v>
+        <v>63219219</v>
       </c>
       <c r="SV6" t="n">
         <v>61889169</v>
       </c>
       <c r="SW6" t="n">
-        <v>75420140</v>
+        <v>75419766</v>
       </c>
       <c r="SX6" t="n">
         <v>78873863</v>
+      </c>
+      <c r="SY6" t="n">
+        <v>66601931</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -12278,40 +12518,76 @@
         <v>92003095</v>
       </c>
       <c r="SM7" t="n">
-        <v>99200810</v>
+        <v>101557362</v>
       </c>
       <c r="SN7" t="n">
-        <v>99570019</v>
+        <v>99633238</v>
       </c>
       <c r="SO7" t="n">
-        <v>103988731</v>
+        <v>105388880</v>
       </c>
       <c r="SP7" t="n">
-        <v>124970918</v>
+        <v>125884441</v>
       </c>
       <c r="SQ7" t="n">
-        <v>117715198</v>
+        <v>118524811</v>
       </c>
       <c r="SR7" t="n">
-        <v>115240611</v>
+        <v>115532236</v>
       </c>
       <c r="SS7" t="n">
-        <v>124371577</v>
+        <v>124588021</v>
       </c>
       <c r="ST7" t="n">
-        <v>133765444</v>
+        <v>134274344</v>
       </c>
       <c r="SU7" t="n">
-        <v>151683407</v>
+        <v>152584639</v>
       </c>
       <c r="SV7" t="n">
-        <v>146547482</v>
+        <v>146700152</v>
       </c>
       <c r="SW7" t="n">
-        <v>146059850</v>
+        <v>146095432</v>
       </c>
       <c r="SX7" t="n">
-        <v>127941215</v>
+        <v>127996168</v>
+      </c>
+      <c r="SY7" t="n">
+        <v>127959205</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -13873,6 +14149,42 @@
       <c r="SX8" t="n">
         <v>0</v>
       </c>
+      <c r="SY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -15433,6 +15745,42 @@
       <c r="SX9" t="n">
         <v>0</v>
       </c>
+      <c r="SY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -16958,40 +17306,76 @@
         <v>1212810261</v>
       </c>
       <c r="SM10" t="n">
-        <v>1001518164</v>
+        <v>1001479128</v>
       </c>
       <c r="SN10" t="n">
-        <v>1092350274</v>
+        <v>1092372148</v>
       </c>
       <c r="SO10" t="n">
-        <v>1239302000</v>
+        <v>1239276100</v>
       </c>
       <c r="SP10" t="n">
-        <v>1276160728</v>
+        <v>1275834731</v>
       </c>
       <c r="SQ10" t="n">
-        <v>1104574403</v>
+        <v>1104572280</v>
       </c>
       <c r="SR10" t="n">
-        <v>1345605385</v>
+        <v>1345667909</v>
       </c>
       <c r="SS10" t="n">
-        <v>1383854142</v>
+        <v>1383795480</v>
       </c>
       <c r="ST10" t="n">
-        <v>1150559616</v>
+        <v>1150541134</v>
       </c>
       <c r="SU10" t="n">
-        <v>1155319828</v>
+        <v>1155188553</v>
       </c>
       <c r="SV10" t="n">
-        <v>1302955354</v>
+        <v>1302427273</v>
       </c>
       <c r="SW10" t="n">
-        <v>1299442489</v>
+        <v>1299440211</v>
       </c>
       <c r="SX10" t="n">
-        <v>1480814395</v>
+        <v>1480819031</v>
+      </c>
+      <c r="SY10" t="n">
+        <v>1116946663</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -18518,40 +18902,76 @@
         <v>587312870</v>
       </c>
       <c r="SM11" t="n">
-        <v>586334286</v>
+        <v>587999782</v>
       </c>
       <c r="SN11" t="n">
-        <v>620568047</v>
+        <v>622669802</v>
       </c>
       <c r="SO11" t="n">
-        <v>790821632</v>
+        <v>795951451</v>
       </c>
       <c r="SP11" t="n">
-        <v>738461453</v>
+        <v>740497866</v>
       </c>
       <c r="SQ11" t="n">
-        <v>743991457</v>
+        <v>746073966</v>
       </c>
       <c r="SR11" t="n">
-        <v>768849251</v>
+        <v>768954839</v>
       </c>
       <c r="SS11" t="n">
-        <v>724600924</v>
+        <v>723170827</v>
       </c>
       <c r="ST11" t="n">
-        <v>759653368</v>
+        <v>759786739</v>
       </c>
       <c r="SU11" t="n">
-        <v>763332688</v>
+        <v>763207464</v>
       </c>
       <c r="SV11" t="n">
-        <v>717941456</v>
+        <v>718228384</v>
       </c>
       <c r="SW11" t="n">
-        <v>856069503</v>
+        <v>855897195</v>
       </c>
       <c r="SX11" t="n">
-        <v>819807612</v>
+        <v>820676010</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>782046666</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/158/MOF/TRADE/COUN/North America.xlsx
+++ b/data/158/MOF/TRADE/COUN/North America.xlsx
@@ -4577,7 +4577,7 @@
         <v>1183548594</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>1358611882</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         <v>949410372</v>
       </c>
       <c r="SY3" t="n">
-        <v>910786236</v>
+        <v>911214193</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>1012498864</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>780365</v>
       </c>
       <c r="SZ5" t="n">
-        <v>0</v>
+        <v>658518</v>
       </c>
       <c r="TA5" t="n">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>66601931</v>
       </c>
       <c r="SZ6" t="n">
-        <v>0</v>
+        <v>91094315</v>
       </c>
       <c r="TA6" t="n">
         <v>0</v>
@@ -12554,10 +12554,10 @@
         <v>127996168</v>
       </c>
       <c r="SY7" t="n">
-        <v>127959205</v>
+        <v>127932494</v>
       </c>
       <c r="SZ7" t="n">
-        <v>0</v>
+        <v>147064869</v>
       </c>
       <c r="TA7" t="n">
         <v>0</v>
@@ -17345,7 +17345,7 @@
         <v>1116946663</v>
       </c>
       <c r="SZ10" t="n">
-        <v>0</v>
+        <v>1267517567</v>
       </c>
       <c r="TA10" t="n">
         <v>0</v>
@@ -18938,10 +18938,10 @@
         <v>820676010</v>
       </c>
       <c r="SY11" t="n">
-        <v>782046666</v>
+        <v>782501334</v>
       </c>
       <c r="SZ11" t="n">
-        <v>0</v>
+        <v>864775477</v>
       </c>
       <c r="TA11" t="n">
         <v>0</v>
